--- a/references/Color converter.xlsx
+++ b/references/Color converter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -409,27 +409,27 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="C3">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3*(16/255)</f>
-        <v>10.91764705882353</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <f>B3*(16/255)</f>
-        <v>13.490196078431373</v>
+        <v>8.4078431372549023</v>
       </c>
       <c r="C4" s="1">
         <f>C3*(16/255)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
